--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AR_50_9.xlsx
@@ -369,185 +369,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA24"/>
+  <dimension ref="A1:AZ22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:52">
       <c r="B1" s="1">
-        <v>39400</v>
+        <v>39583</v>
       </c>
       <c r="C1" s="1">
-        <v>39583</v>
+        <v>39765</v>
       </c>
       <c r="D1" s="1">
-        <v>39765</v>
+        <v>39948</v>
       </c>
       <c r="E1" s="1">
-        <v>39948</v>
+        <v>40130</v>
       </c>
       <c r="F1" s="1">
-        <v>40130</v>
+        <v>40310</v>
       </c>
       <c r="G1" s="1">
-        <v>40310</v>
+        <v>40494</v>
       </c>
       <c r="H1" s="1">
-        <v>40494</v>
+        <v>40676</v>
       </c>
       <c r="I1" s="1">
-        <v>40676</v>
+        <v>40862</v>
       </c>
       <c r="J1" s="1">
-        <v>40862</v>
+        <v>41044</v>
       </c>
       <c r="K1" s="1">
-        <v>41044</v>
+        <v>41228</v>
       </c>
       <c r="L1" s="1">
-        <v>41228</v>
+        <v>41409</v>
       </c>
       <c r="M1" s="1">
-        <v>41409</v>
+        <v>41592</v>
       </c>
       <c r="N1" s="1">
-        <v>41592</v>
+        <v>41774</v>
       </c>
       <c r="O1" s="1">
-        <v>41774</v>
+        <v>41957</v>
       </c>
       <c r="P1" s="1">
-        <v>41957</v>
+        <v>42137</v>
       </c>
       <c r="Q1" s="1">
-        <v>42137</v>
+        <v>42321</v>
       </c>
       <c r="R1" s="1">
-        <v>42321</v>
+        <v>42503</v>
       </c>
       <c r="S1" s="1">
-        <v>42503</v>
+        <v>42689</v>
       </c>
       <c r="T1" s="1">
-        <v>42689</v>
+        <v>42867</v>
       </c>
       <c r="U1" s="1">
-        <v>42867</v>
+        <v>43053</v>
       </c>
       <c r="V1" s="1">
-        <v>43053</v>
+        <v>43145</v>
       </c>
       <c r="W1" s="1">
-        <v>43145</v>
+        <v>43235</v>
       </c>
       <c r="X1" s="1">
-        <v>43235</v>
+        <v>43326</v>
       </c>
       <c r="Y1" s="1">
-        <v>43326</v>
+        <v>43418</v>
       </c>
       <c r="Z1" s="1">
-        <v>43418</v>
+        <v>43510</v>
       </c>
       <c r="AA1" s="1">
-        <v>43510</v>
+        <v>43600</v>
       </c>
       <c r="AB1" s="1">
-        <v>43600</v>
+        <v>43691</v>
       </c>
       <c r="AC1" s="1">
-        <v>43691</v>
+        <v>43783</v>
       </c>
       <c r="AD1" s="1">
-        <v>43783</v>
+        <v>43875</v>
       </c>
       <c r="AE1" s="1">
-        <v>43875</v>
+        <v>43966</v>
       </c>
       <c r="AF1" s="1">
-        <v>43966</v>
+        <v>44068</v>
       </c>
       <c r="AG1" s="1">
-        <v>44068</v>
+        <v>44159</v>
       </c>
       <c r="AH1" s="1">
-        <v>44159</v>
+        <v>44251</v>
       </c>
       <c r="AI1" s="1">
-        <v>44251</v>
+        <v>44341</v>
       </c>
       <c r="AJ1" s="1">
-        <v>44341</v>
+        <v>44432</v>
       </c>
       <c r="AK1" s="1">
-        <v>44432</v>
+        <v>44525</v>
       </c>
       <c r="AL1" s="1">
-        <v>44525</v>
+        <v>44617</v>
       </c>
       <c r="AM1" s="1">
-        <v>44617</v>
+        <v>44706</v>
       </c>
       <c r="AN1" s="1">
-        <v>44706</v>
+        <v>44798</v>
       </c>
       <c r="AO1" s="1">
-        <v>44798</v>
+        <v>44890</v>
       </c>
       <c r="AP1" s="1">
-        <v>44890</v>
+        <v>44981</v>
       </c>
       <c r="AQ1" s="1">
-        <v>44981</v>
+        <v>45071</v>
       </c>
       <c r="AR1" s="1">
-        <v>45071</v>
+        <v>45163</v>
       </c>
       <c r="AS1" s="1">
-        <v>45163</v>
+        <v>45254</v>
       </c>
       <c r="AT1" s="1">
-        <v>45254</v>
+        <v>45345</v>
       </c>
       <c r="AU1" s="1">
-        <v>45345</v>
+        <v>45436</v>
       </c>
       <c r="AV1" s="1">
-        <v>45436</v>
+        <v>45534</v>
       </c>
       <c r="AW1" s="1">
-        <v>45534</v>
+        <v>45618</v>
       </c>
       <c r="AX1" s="1">
-        <v>45618</v>
+        <v>45713</v>
       </c>
       <c r="AY1" s="1">
-        <v>45713</v>
+        <v>45800</v>
       </c>
       <c r="AZ1" s="1">
-        <v>45800</v>
-      </c>
-      <c r="BA1" s="1">
         <v>45891</v>
       </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:52">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:52">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
-      <c r="C3">
-        <v>0.7015182403732778</v>
-      </c>
-      <c r="D3">
-        <v>-0.7420476828353562</v>
-      </c>
       <c r="E3">
         <v>-0.5555135891318952</v>
       </c>
@@ -692,26 +683,11 @@
       <c r="AZ3">
         <v>-0.5555135891318952</v>
       </c>
-      <c r="BA3">
-        <v>-0.5555135891318952</v>
-      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:52">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
-      <c r="C4">
-        <v>0.1673891487892432</v>
-      </c>
-      <c r="D4">
-        <v>-1.350367056233948</v>
-      </c>
-      <c r="E4">
-        <v>-0.2451976371230291</v>
-      </c>
-      <c r="F4">
-        <v>0.2972988696328782</v>
-      </c>
       <c r="G4">
         <v>0.8442071301477228</v>
       </c>
@@ -850,32 +826,11 @@
       <c r="AZ4">
         <v>0.8442071301477228</v>
       </c>
-      <c r="BA4">
-        <v>0.8442071301477228</v>
-      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:52">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
-      <c r="C5">
-        <v>0.5336014356039698</v>
-      </c>
-      <c r="D5">
-        <v>-0.9015684446282424</v>
-      </c>
-      <c r="E5">
-        <v>0.09581670933094255</v>
-      </c>
-      <c r="F5">
-        <v>0.3343875487405334</v>
-      </c>
-      <c r="G5">
-        <v>1.212115489820365</v>
-      </c>
-      <c r="H5">
-        <v>1.013480763294794</v>
-      </c>
       <c r="I5">
         <v>1.122475521884692</v>
       </c>
@@ -1008,32 +963,11 @@
       <c r="AZ5">
         <v>1.122475521884692</v>
       </c>
-      <c r="BA5">
-        <v>1.122475521884692</v>
-      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:52">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
-      <c r="E6">
-        <v>-0.2057721868825357</v>
-      </c>
-      <c r="F6">
-        <v>0.04546928237083581</v>
-      </c>
-      <c r="G6">
-        <v>0.5721189866702003</v>
-      </c>
-      <c r="H6">
-        <v>0.3600662128870669</v>
-      </c>
-      <c r="I6">
-        <v>0.3626630030113764</v>
-      </c>
-      <c r="J6">
-        <v>-0.4258007569310829</v>
-      </c>
       <c r="K6">
         <v>-0.578174579726376</v>
       </c>
@@ -1160,31 +1094,16 @@
       <c r="AZ6">
         <v>-0.578174579726376</v>
       </c>
-      <c r="BA6">
-        <v>-0.578174579726376</v>
-      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:52">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
-      <c r="G7">
-        <v>0.564085987892704</v>
-      </c>
-      <c r="H7">
-        <v>0.4666570429373573</v>
-      </c>
-      <c r="I7">
-        <v>0.2672415568667486</v>
-      </c>
-      <c r="J7">
-        <v>-0.09542162729978543</v>
-      </c>
       <c r="K7">
-        <v>-0.7218300370884001</v>
+        <v>-0.3496173419443749</v>
       </c>
       <c r="L7">
-        <v>-0.7514559363454909</v>
+        <v>-0.6616365666142765</v>
       </c>
       <c r="M7">
         <v>-0.7492845378401558</v>
@@ -1306,31 +1225,22 @@
       <c r="AZ7">
         <v>-0.7492845378401558</v>
       </c>
-      <c r="BA7">
-        <v>-0.7492845378401558</v>
-      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:52">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
-      <c r="I8">
-        <v>0.4447468098319751</v>
-      </c>
-      <c r="J8">
-        <v>0.2161889475051471</v>
-      </c>
       <c r="K8">
-        <v>-0.08694934547430755</v>
+        <v>0.1626813993622633</v>
       </c>
       <c r="L8">
-        <v>-0.05069722546152677</v>
+        <v>0.2197847717222867</v>
       </c>
       <c r="M8">
-        <v>-0.07607154651957382</v>
+        <v>0.05500386022236903</v>
       </c>
       <c r="N8">
-        <v>0.2199740425759433</v>
+        <v>0.2184978785563896</v>
       </c>
       <c r="O8">
         <v>0.2751437421933511</v>
@@ -1446,31 +1356,25 @@
       <c r="AZ8">
         <v>0.2751437421933511</v>
       </c>
-      <c r="BA8">
-        <v>0.2751437421933511</v>
-      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:52">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
-      <c r="K9">
-        <v>0.03479544702873483</v>
-      </c>
       <c r="L9">
-        <v>0.02776476584434029</v>
+        <v>0.09544618126309246</v>
       </c>
       <c r="M9">
-        <v>-0.0137458194809037</v>
+        <v>0.05909805310246874</v>
       </c>
       <c r="N9">
-        <v>-0.06833246844272223</v>
+        <v>0.04195831742983547</v>
       </c>
       <c r="O9">
-        <v>-0.184453991189526</v>
+        <v>0.07916875696107883</v>
       </c>
       <c r="P9">
-        <v>-0.08253785766044741</v>
+        <v>-0.01790997771649039</v>
       </c>
       <c r="Q9">
         <v>0.07468705617190707</v>
@@ -1580,31 +1484,25 @@
       <c r="AZ9">
         <v>0.07468705617190707</v>
       </c>
-      <c r="BA9">
-        <v>0.07468705617190707</v>
-      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:52">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
-      <c r="M10">
-        <v>0.02638012093210129</v>
-      </c>
       <c r="N10">
-        <v>0.05316419410974493</v>
+        <v>0.08086314912676418</v>
       </c>
       <c r="O10">
-        <v>-0.1744426819509814</v>
+        <v>0.09103564879091586</v>
       </c>
       <c r="P10">
-        <v>-0.08240261325599407</v>
+        <v>0.1671491311400208</v>
       </c>
       <c r="Q10">
-        <v>0.3631938889236741</v>
+        <v>0.1656566557188155</v>
       </c>
       <c r="R10">
-        <v>-0.05493014849097255</v>
+        <v>-0.08711135105702317</v>
       </c>
       <c r="S10">
         <v>-0.05493014849097255</v>
@@ -1708,31 +1606,25 @@
       <c r="AZ10">
         <v>-0.05493014849097255</v>
       </c>
-      <c r="BA10">
-        <v>-0.05493014849097255</v>
-      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:52">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
-      <c r="O11">
-        <v>0.01636125923607512</v>
-      </c>
       <c r="P11">
-        <v>0.03703205568530432</v>
+        <v>0.09001325883963851</v>
       </c>
       <c r="Q11">
-        <v>0.09723304016195922</v>
+        <v>0.09512483792448734</v>
       </c>
       <c r="R11">
-        <v>0.1293664204464307</v>
+        <v>0.1158714888162216</v>
       </c>
       <c r="S11">
-        <v>0.1249812328300459</v>
+        <v>0.2044493994367125</v>
       </c>
       <c r="T11">
-        <v>0.1772374095820428</v>
+        <v>0.1761917659537371</v>
       </c>
       <c r="U11">
         <v>0.2820931576894115</v>
@@ -1830,37 +1722,31 @@
       <c r="AZ11">
         <v>0.2820931576894115</v>
       </c>
-      <c r="BA11">
-        <v>0.2820931576894115</v>
-      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:52">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
-      <c r="Q12">
-        <v>0.1166690278012528</v>
-      </c>
       <c r="R12">
-        <v>0.06307964554226331</v>
+        <v>0.07295307304728826</v>
       </c>
       <c r="S12">
-        <v>0.0230205899341307</v>
+        <v>0.08337410701473313</v>
       </c>
       <c r="T12">
-        <v>0.1067192150770779</v>
+        <v>0.1078587431702305</v>
       </c>
       <c r="U12">
-        <v>0.2464114370821502</v>
+        <v>0.2685680645708288</v>
       </c>
       <c r="V12">
-        <v>0.4722128445998619</v>
+        <v>0.2803378563356329</v>
       </c>
       <c r="W12">
-        <v>0.3858180453838456</v>
+        <v>0.3524405906205841</v>
       </c>
       <c r="X12">
-        <v>0.1945700812221007</v>
+        <v>0.1415392254179304</v>
       </c>
       <c r="Y12">
         <v>0.2343541283920114</v>
@@ -1946,46 +1832,37 @@
       <c r="AZ12">
         <v>0.2343541283920114</v>
       </c>
-      <c r="BA12">
-        <v>0.2343541283920114</v>
-      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:52">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
-      <c r="R13">
-        <v>0.07821929365308122</v>
-      </c>
-      <c r="S13">
-        <v>0.07328306923890526</v>
-      </c>
       <c r="T13">
-        <v>0.07805093782196071</v>
+        <v>0.08648845420498041</v>
       </c>
       <c r="U13">
-        <v>0.09499379562709631</v>
+        <v>0.1068584531153549</v>
       </c>
       <c r="V13">
-        <v>0.2292478578912682</v>
+        <v>0.1089201880626334</v>
       </c>
       <c r="W13">
-        <v>0.207570107975763</v>
+        <v>0.1531204771924033</v>
       </c>
       <c r="X13">
-        <v>0.007490141202270983</v>
+        <v>-0.1904239862803969</v>
       </c>
       <c r="Y13">
-        <v>0.2374675790670411</v>
+        <v>0.2977174885593792</v>
       </c>
       <c r="Z13">
-        <v>0.33359684781058</v>
+        <v>0.3424613118119479</v>
       </c>
       <c r="AA13">
-        <v>0.186480910314879</v>
+        <v>0.07560805834034845</v>
       </c>
       <c r="AB13">
-        <v>-0.0007133001605263978</v>
+        <v>-0.05069288950212414</v>
       </c>
       <c r="AC13">
         <v>-0.009430310228020211</v>
@@ -2059,52 +1936,40 @@
       <c r="AZ13">
         <v>-0.009430310228020211</v>
       </c>
-      <c r="BA13">
-        <v>-0.009430310228020211</v>
-      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:52">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
-      <c r="T14">
-        <v>0.08404524692726678</v>
-      </c>
-      <c r="U14">
-        <v>0.1076912330150614</v>
-      </c>
-      <c r="V14">
-        <v>0.1417004769005414</v>
-      </c>
       <c r="W14">
-        <v>0.1459330430332306</v>
+        <v>0.1240365846986169</v>
       </c>
       <c r="X14">
-        <v>0.08023498827844922</v>
+        <v>0.0862183575680131</v>
       </c>
       <c r="Y14">
-        <v>0.02725614302636625</v>
+        <v>0.1275780827634909</v>
       </c>
       <c r="Z14">
-        <v>0.02498126405197088</v>
+        <v>0.1339497680586277</v>
       </c>
       <c r="AA14">
-        <v>0.007785039500074475</v>
+        <v>-0.01670081902098719</v>
       </c>
       <c r="AB14">
-        <v>-0.1199330684587996</v>
+        <v>-0.2043633904885378</v>
       </c>
       <c r="AC14">
-        <v>-0.1185160685694409</v>
+        <v>0.0103609600907939</v>
       </c>
       <c r="AD14">
-        <v>-0.09195392075255215</v>
+        <v>0.01105513701109562</v>
       </c>
       <c r="AE14">
-        <v>-0.7531433808722343</v>
+        <v>-0.5849047489490333</v>
       </c>
       <c r="AF14">
-        <v>-2.594017828322792</v>
+        <v>-2.657403949513992</v>
       </c>
       <c r="AG14">
         <v>-2.657403949513992</v>
@@ -2166,58 +2031,40 @@
       <c r="AZ14">
         <v>-2.657403949513992</v>
       </c>
-      <c r="BA14">
-        <v>-2.657403949513992</v>
-      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:52">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
-      <c r="V15">
-        <v>0.1404632442677078</v>
-      </c>
-      <c r="W15">
-        <v>0.1318989108554769</v>
-      </c>
-      <c r="X15">
-        <v>0.09457129817682652</v>
-      </c>
-      <c r="Y15">
-        <v>0.01491442662038267</v>
-      </c>
-      <c r="Z15">
-        <v>0.03358255109227049</v>
-      </c>
       <c r="AA15">
-        <v>4.678796816648401E-06</v>
+        <v>0.09988477497939741</v>
       </c>
       <c r="AB15">
-        <v>0.02269668692931326</v>
+        <v>0.08096036838765031</v>
       </c>
       <c r="AC15">
-        <v>-0.05291970973309024</v>
+        <v>0.0924908932996793</v>
       </c>
       <c r="AD15">
-        <v>-0.09084106672423431</v>
+        <v>0.0925667197466451</v>
       </c>
       <c r="AE15">
-        <v>-0.2237910902102569</v>
+        <v>-0.2059746096811033</v>
       </c>
       <c r="AF15">
-        <v>2.126320849439001</v>
+        <v>-1.40802832891157</v>
       </c>
       <c r="AG15">
-        <v>0.07817184560396928</v>
+        <v>-1.407243743159736</v>
       </c>
       <c r="AH15">
-        <v>-1.0544282406034</v>
+        <v>-0.2500618974080826</v>
       </c>
       <c r="AI15">
-        <v>-0.3190555674682627</v>
+        <v>-0.4334047671505248</v>
       </c>
       <c r="AJ15">
-        <v>-0.5726882163857971</v>
+        <v>-0.3096364143617802</v>
       </c>
       <c r="AK15">
         <v>-0.3096364143617802</v>
@@ -2267,61 +2114,40 @@
       <c r="AZ15">
         <v>-0.3096364143617802</v>
       </c>
-      <c r="BA15">
-        <v>-0.3096364143617802</v>
-      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:52">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
-      <c r="Y16">
-        <v>0.1013198269169457</v>
-      </c>
-      <c r="Z16">
-        <v>0.1127626472374521</v>
-      </c>
-      <c r="AA16">
-        <v>0.09333663541206683</v>
-      </c>
-      <c r="AB16">
-        <v>0.07360255832484786</v>
-      </c>
-      <c r="AC16">
-        <v>-0.02411130849933052</v>
-      </c>
-      <c r="AD16">
-        <v>-0.02874924577820348</v>
-      </c>
       <c r="AE16">
-        <v>-0.05385012773970743</v>
+        <v>0.02690490217465147</v>
       </c>
       <c r="AF16">
-        <v>0.3790050957708679</v>
+        <v>-0.3373802571851825</v>
       </c>
       <c r="AG16">
-        <v>0.2336308697720169</v>
+        <v>-0.3318847693681293</v>
       </c>
       <c r="AH16">
-        <v>-0.04596664725196042</v>
+        <v>0.07829984441984905</v>
       </c>
       <c r="AI16">
-        <v>-0.507168233081734</v>
+        <v>-0.06335028919957075</v>
       </c>
       <c r="AJ16">
-        <v>-0.4385391043360887</v>
+        <v>0.2283024244226883</v>
       </c>
       <c r="AK16">
-        <v>0.3880187947925107</v>
+        <v>0.2048390592685578</v>
       </c>
       <c r="AL16">
-        <v>0.5763850579771912</v>
+        <v>-0.0355780787674953</v>
       </c>
       <c r="AM16">
-        <v>0.1019287759377319</v>
+        <v>-0.1663214453978101</v>
       </c>
       <c r="AN16">
-        <v>-0.09402823344024647</v>
+        <v>-0.1730430455425092</v>
       </c>
       <c r="AO16">
         <v>-0.1730430455425092</v>
@@ -2359,61 +2185,43 @@
       <c r="AZ16">
         <v>-0.1730430455425092</v>
       </c>
-      <c r="BA16">
-        <v>-0.1730430455425092</v>
-      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:52">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
-      <c r="AC17">
-        <v>0.07749729604569211</v>
-      </c>
-      <c r="AD17">
-        <v>0.0777864194720479</v>
-      </c>
-      <c r="AE17">
-        <v>0.01993565193623148</v>
-      </c>
-      <c r="AF17">
-        <v>0.126251884319295</v>
-      </c>
-      <c r="AG17">
-        <v>-0.1329785998674948</v>
-      </c>
       <c r="AH17">
-        <v>-0.1283117147341528</v>
+        <v>-0.1014535848389841</v>
       </c>
       <c r="AI17">
-        <v>-0.1339282121607166</v>
+        <v>-0.1084535449743185</v>
       </c>
       <c r="AJ17">
-        <v>-0.1688560291241425</v>
+        <v>-0.07323448430569535</v>
       </c>
       <c r="AK17">
-        <v>0.1846051843356067</v>
+        <v>-0.09464543652764057</v>
       </c>
       <c r="AL17">
-        <v>0.6821803990256781</v>
+        <v>-0.1890623092888566</v>
       </c>
       <c r="AM17">
-        <v>0.479844425366438</v>
+        <v>-0.3613518455741316</v>
       </c>
       <c r="AN17">
-        <v>0.8200243578187161</v>
+        <v>-0.4115424244148125</v>
       </c>
       <c r="AO17">
-        <v>0.1247342831339759</v>
+        <v>0.2152263639657814</v>
       </c>
       <c r="AP17">
-        <v>0.5522675992340798</v>
+        <v>0.6050248749486009</v>
       </c>
       <c r="AQ17">
-        <v>0.7070687814112464</v>
+        <v>0.6502606143725664</v>
       </c>
       <c r="AR17">
-        <v>0.6846709791617167</v>
+        <v>0.6376744206510576</v>
       </c>
       <c r="AS17">
         <v>0.6376744206510576</v>
@@ -2439,61 +2247,43 @@
       <c r="AZ17">
         <v>0.6376744206510576</v>
       </c>
-      <c r="BA17">
-        <v>0.6376744206510576</v>
-      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:52">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
-      <c r="AG18">
-        <v>-0.2136103088863028</v>
-      </c>
-      <c r="AH18">
-        <v>-0.3321293934345992</v>
-      </c>
-      <c r="AI18">
-        <v>-0.3091313389450789</v>
-      </c>
-      <c r="AJ18">
-        <v>-0.3257178379550307</v>
-      </c>
-      <c r="AK18">
-        <v>-0.06310525019593838</v>
-      </c>
       <c r="AL18">
-        <v>-0.01177375187890739</v>
+        <v>-0.1350767357100935</v>
       </c>
       <c r="AM18">
-        <v>-0.05198825516755656</v>
+        <v>-0.2302498790168306</v>
       </c>
       <c r="AN18">
-        <v>0.04736720386881998</v>
+        <v>-0.2817956528829213</v>
       </c>
       <c r="AO18">
-        <v>-0.227552385719576</v>
+        <v>-0.2954722246111707</v>
       </c>
       <c r="AP18">
-        <v>-0.1108534734264865</v>
+        <v>-0.1865259660156937</v>
       </c>
       <c r="AQ18">
-        <v>-0.06692696028677281</v>
+        <v>-0.1691853834640433</v>
       </c>
       <c r="AR18">
-        <v>0.1200849649013458</v>
+        <v>-0.2058599286704377</v>
       </c>
       <c r="AS18">
-        <v>0.006074511539599925</v>
+        <v>-0.06071040501895997</v>
       </c>
       <c r="AT18">
-        <v>0.2066385473532328</v>
+        <v>-0.05036452040672046</v>
       </c>
       <c r="AU18">
-        <v>0.003513949268807437</v>
+        <v>0.1549171986535924</v>
       </c>
       <c r="AV18">
-        <v>0.2212143863870253</v>
+        <v>0.1856341247700399</v>
       </c>
       <c r="AW18">
         <v>0.1856341247700399</v>
@@ -2507,173 +2297,88 @@
       <c r="AZ18">
         <v>0.1856341247700399</v>
       </c>
-      <c r="BA18">
-        <v>0.1856341247700399</v>
-      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:52">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
-      <c r="AK19">
-        <v>-0.2297275342777461</v>
-      </c>
-      <c r="AL19">
-        <v>-0.169088459962552</v>
-      </c>
-      <c r="AM19">
-        <v>-0.2278073752439158</v>
-      </c>
-      <c r="AN19">
-        <v>-0.2070103232531206</v>
-      </c>
-      <c r="AO19">
-        <v>-0.4681004032706881</v>
-      </c>
       <c r="AP19">
-        <v>-0.2718255829937455</v>
+        <v>-0.2229868532896306</v>
       </c>
       <c r="AQ19">
-        <v>-0.2521647428386786</v>
+        <v>-0.2399087565268632</v>
       </c>
       <c r="AR19">
-        <v>-0.003015866764677355</v>
+        <v>-0.2555246202002537</v>
       </c>
       <c r="AS19">
-        <v>0.06753287392999852</v>
+        <v>-0.2428218159789997</v>
       </c>
       <c r="AT19">
-        <v>-0.01750050007311987</v>
+        <v>-0.2233431232791294</v>
       </c>
       <c r="AU19">
-        <v>-0.0971648574240036</v>
+        <v>-0.03486668218654065</v>
       </c>
       <c r="AV19">
-        <v>0.3049434951572172</v>
+        <v>0.0444032571666142</v>
       </c>
       <c r="AW19">
-        <v>0.0965383357124816</v>
+        <v>0.160714157635633</v>
       </c>
       <c r="AX19">
-        <v>0.1605926478871034</v>
+        <v>0.01130372647704103</v>
       </c>
       <c r="AY19">
-        <v>-0.01148140173768963</v>
+        <v>-0.06391119588061711</v>
       </c>
       <c r="AZ19">
-        <v>-0.09492420427399395</v>
-      </c>
-      <c r="BA19">
         <v>-0.09450306168263811</v>
       </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:52">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
-      <c r="AO20">
-        <v>-0.2153803226024098</v>
-      </c>
-      <c r="AP20">
-        <v>-0.1613703375975883</v>
-      </c>
-      <c r="AQ20">
-        <v>-0.144584679326587</v>
-      </c>
-      <c r="AR20">
-        <v>-0.1186520078657494</v>
-      </c>
-      <c r="AS20">
-        <v>-0.1681661497035414</v>
-      </c>
       <c r="AT20">
-        <v>-0.1691077062707658</v>
+        <v>-0.214870093455366</v>
       </c>
       <c r="AU20">
-        <v>-0.1887106989112319</v>
+        <v>-0.1571058138897907</v>
       </c>
       <c r="AV20">
-        <v>-0.2842304525279671</v>
+        <v>-0.1327251081615577</v>
       </c>
       <c r="AW20">
-        <v>-0.1454893491307896</v>
+        <v>-0.1040004763365077</v>
       </c>
       <c r="AX20">
-        <v>-0.2113357460151288</v>
+        <v>-0.1505299872523014</v>
       </c>
       <c r="AY20">
-        <v>-0.3077774797124899</v>
+        <v>-0.2122873162357264</v>
       </c>
       <c r="AZ20">
-        <v>-0.2765110737940724</v>
-      </c>
-      <c r="BA20">
-        <v>-0.2733642003528658</v>
+        <v>-0.2824524929558314</v>
       </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:52">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
-      <c r="AS21">
-        <v>-0.1451288806507356</v>
-      </c>
-      <c r="AT21">
-        <v>-0.1355969007752145</v>
-      </c>
-      <c r="AU21">
-        <v>-0.1599689452156827</v>
-      </c>
-      <c r="AV21">
-        <v>-0.1124253588300816</v>
-      </c>
-      <c r="AW21">
-        <v>-0.1805921263154597</v>
-      </c>
       <c r="AX21">
-        <v>-0.1948411031778563</v>
+        <v>-0.1156228055083641</v>
       </c>
       <c r="AY21">
-        <v>-0.172929757776541</v>
+        <v>-0.1284476411859137</v>
       </c>
       <c r="AZ21">
-        <v>-0.02752715226868041</v>
-      </c>
-      <c r="BA21">
-        <v>0.03844096882634762</v>
+        <v>-0.1394689437024588</v>
       </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:52">
       <c r="A22" s="1">
         <v>47118</v>
-      </c>
-      <c r="AW22">
-        <v>-0.1400394059115184</v>
-      </c>
-      <c r="AX22">
-        <v>-0.1413146113241059</v>
-      </c>
-      <c r="AY22">
-        <v>-0.1630589432085272</v>
-      </c>
-      <c r="AZ22">
-        <v>-0.1605198350442372</v>
-      </c>
-      <c r="BA22">
-        <v>-0.1211264880242924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>47483</v>
-      </c>
-      <c r="BA23">
-        <v>-0.1700073230077037</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>47848</v>
       </c>
     </row>
   </sheetData>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AR_50_9.xlsx
@@ -2332,7 +2332,7 @@
         <v>-0.6491730431770759</v>
       </c>
       <c r="AG17">
-        <v>-1.503583188367719</v>
+        <v>-2.057410563888307</v>
       </c>
       <c r="AH17">
         <v>-1.103489789942047</v>
@@ -2415,19 +2415,19 @@
         <v>-0.4370777949570193</v>
       </c>
       <c r="AG18">
-        <v>-0.5877299932847579</v>
+        <v>-2.423816817070157</v>
       </c>
       <c r="AH18">
-        <v>1.323658311025055</v>
+        <v>0.1236480429917863</v>
       </c>
       <c r="AI18">
-        <v>2.632698787096288</v>
+        <v>1.494156293753868</v>
       </c>
       <c r="AJ18">
-        <v>1.311904119834839</v>
+        <v>1.65545307357684</v>
       </c>
       <c r="AK18">
-        <v>1.067534122491809</v>
+        <v>1.056133903324663</v>
       </c>
       <c r="AL18">
         <v>0.9704846793491928</v>
@@ -2486,31 +2486,31 @@
         <v>-0.224482972078377</v>
       </c>
       <c r="AG19">
-        <v>-0.2357798565522762</v>
+        <v>-0.5482997434836934</v>
       </c>
       <c r="AH19">
-        <v>-0.04618289788388408</v>
+        <v>-0.1265083447281046</v>
       </c>
       <c r="AI19">
-        <v>0.4893323826990148</v>
+        <v>-0.03701844118276787</v>
       </c>
       <c r="AJ19">
-        <v>-0.1159018519404809</v>
+        <v>0.1245975200357741</v>
       </c>
       <c r="AK19">
-        <v>-0.112565850764601</v>
+        <v>-0.1670542209177062</v>
       </c>
       <c r="AL19">
-        <v>-0.6989646400249128</v>
+        <v>-0.411990061586387</v>
       </c>
       <c r="AM19">
-        <v>-0.3568974718008655</v>
+        <v>-0.1632466586723669</v>
       </c>
       <c r="AN19">
-        <v>-1.338216592160768</v>
+        <v>-1.105429175133765</v>
       </c>
       <c r="AO19">
-        <v>-0.9795431199870586</v>
+        <v>-0.9016217080135669</v>
       </c>
       <c r="AP19">
         <v>-0.7009264669202708</v>
@@ -2553,38 +2553,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>0.3566518523059781</v>
-      </c>
       <c r="AJ20">
-        <v>0.1385443378717266</v>
+        <v>0.2201401276413772</v>
       </c>
       <c r="AK20">
-        <v>0.1399371578460595</v>
+        <v>0.1116918684476387</v>
       </c>
       <c r="AL20">
-        <v>0.02904234278986451</v>
+        <v>0.1134982879977375</v>
       </c>
       <c r="AM20">
-        <v>0.04689880979749095</v>
+        <v>0.0623674617171055</v>
       </c>
       <c r="AN20">
-        <v>-0.2487719682984557</v>
+        <v>-0.1028550454766353</v>
       </c>
       <c r="AO20">
-        <v>-0.3324688493351879</v>
+        <v>-0.1714519218005472</v>
       </c>
       <c r="AP20">
-        <v>-0.0234350458557242</v>
+        <v>-0.2625026931658447</v>
       </c>
       <c r="AQ20">
-        <v>-0.05370673382950608</v>
+        <v>-0.2824436506008277</v>
       </c>
       <c r="AR20">
-        <v>0.2512652100014945</v>
+        <v>0.131237362188763</v>
       </c>
       <c r="AS20">
-        <v>0.1829021030556488</v>
+        <v>0.1588345419565096</v>
       </c>
       <c r="AT20">
         <v>0.3928252664241905</v>
@@ -2615,38 +2612,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>0.09067722334914485</v>
-      </c>
       <c r="AN21">
-        <v>-0.07367454985873767</v>
+        <v>0.0254504180651649</v>
       </c>
       <c r="AO21">
-        <v>-0.07515124642795135</v>
+        <v>-0.04143995754429808</v>
       </c>
       <c r="AP21">
-        <v>-0.09416313050394365</v>
+        <v>-0.05515464348903043</v>
       </c>
       <c r="AQ21">
-        <v>-0.03417477517112522</v>
+        <v>-0.06249988768062265</v>
       </c>
       <c r="AR21">
-        <v>0.041441321352087</v>
+        <v>-0.03490505833951829</v>
       </c>
       <c r="AS21">
-        <v>0.01245506629512505</v>
+        <v>-0.0219241564445749</v>
       </c>
       <c r="AT21">
-        <v>0.196134499498668</v>
+        <v>0.2126946548430375</v>
       </c>
       <c r="AU21">
-        <v>0.2464401331885524</v>
+        <v>0.2213518443051177</v>
       </c>
       <c r="AV21">
-        <v>0.9693451788297391</v>
+        <v>0.7202664148089788</v>
       </c>
       <c r="AW21">
-        <v>0.6979546684258597</v>
+        <v>0.6819412776044809</v>
       </c>
       <c r="AX21">
         <v>0.3224026462283813</v>
@@ -2665,78 +2659,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-0.058131981744447</v>
-      </c>
       <c r="AR22">
-        <v>-0.01230616378447014</v>
+        <v>-0.06238148704861279</v>
       </c>
       <c r="AS22">
-        <v>-0.04272795187769685</v>
+        <v>-0.03933611394517644</v>
       </c>
       <c r="AT22">
-        <v>-0.00446623763453724</v>
+        <v>-0.01156799258479335</v>
       </c>
       <c r="AU22">
-        <v>-0.02784774425726999</v>
+        <v>0.005297975263385268</v>
       </c>
       <c r="AV22">
-        <v>0.08029846083614789</v>
+        <v>0.01261954615912053</v>
       </c>
       <c r="AW22">
-        <v>-0.04101132194430646</v>
+        <v>-0.03086565764709448</v>
       </c>
       <c r="AX22">
-        <v>-0.6671574593505647</v>
+        <v>-0.4796777936135199</v>
       </c>
       <c r="AY22">
-        <v>-2.205730080079726</v>
+        <v>-1.718039735598909</v>
       </c>
       <c r="AZ22">
-        <v>-1.551451534890558</v>
+        <v>-1.4049744797338</v>
       </c>
       <c r="BA22">
-        <v>-2.11737366557071</v>
+        <v>-2.11727792910924</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>-0.02205833523953871</v>
-      </c>
       <c r="AV23">
-        <v>0.004223213360843303</v>
+        <v>0.004584358788717324</v>
       </c>
       <c r="AW23">
-        <v>-0.08648048264627839</v>
+        <v>-0.04164452484139991</v>
       </c>
       <c r="AX23">
-        <v>-0.1107924672975269</v>
+        <v>-0.1479580503723765</v>
       </c>
       <c r="AY23">
-        <v>-0.2015885781823656</v>
+        <v>-0.09902892412290143</v>
       </c>
       <c r="AZ23">
-        <v>-0.1079783528070921</v>
+        <v>-0.06336997074021244</v>
       </c>
       <c r="BA23">
-        <v>-0.2835476113072333</v>
+        <v>-0.3042153772887857</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>-0.2448389940407081</v>
-      </c>
       <c r="AZ24">
-        <v>-0.1827512857271674</v>
+        <v>-0.174233048094119</v>
       </c>
       <c r="BA24">
-        <v>-0.233726952562352</v>
+        <v>-0.2610200437714427</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AR_50_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2197 +535,1876 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="F3">
+        <v>-3.956152295564863</v>
+      </c>
+      <c r="G3">
+        <v>-3.851319353590821</v>
+      </c>
+      <c r="H3">
+        <v>-3.651173644695949</v>
+      </c>
+      <c r="I3">
+        <v>-3.551226026438292</v>
+      </c>
+      <c r="J3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="K3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="L3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="M3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="N3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="O3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="P3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="Q3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="R3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="S3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="T3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="U3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="V3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="W3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="X3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="Y3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="Z3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AA3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AB3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AC3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AD3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AE3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AF3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AG3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AH3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AI3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AJ3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AK3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AL3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AM3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AN3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AO3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AP3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AQ3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AR3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AS3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AT3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AU3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AV3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AW3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AX3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AY3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="AZ3">
+        <v>-3.560752169208581</v>
+      </c>
+      <c r="BA3">
+        <v>-3.560752169208581</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>2.070003986395053</v>
-      </c>
-      <c r="C4">
-        <v>2.126050467613294</v>
-      </c>
-      <c r="D4">
-        <v>1.996184139986967</v>
-      </c>
-      <c r="E4">
-        <v>1.996184139986967</v>
-      </c>
-      <c r="F4">
-        <v>2.019708590734393</v>
+        <v>40543</v>
       </c>
       <c r="G4">
-        <v>2.019708590734393</v>
+        <v>0.7825601129312298</v>
       </c>
       <c r="H4">
-        <v>2.019708590734393</v>
+        <v>1.234995474941436</v>
       </c>
       <c r="I4">
-        <v>2.019708590734393</v>
+        <v>1.348163430548532</v>
       </c>
       <c r="J4">
-        <v>2.019708590734393</v>
+        <v>1.275896887240346</v>
       </c>
       <c r="K4">
-        <v>2.019708590734393</v>
+        <v>1.275896887240346</v>
       </c>
       <c r="L4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="M4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="N4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="O4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="P4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="Q4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="R4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="S4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="T4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="U4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="V4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="W4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="X4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="Y4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="Z4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AA4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AB4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AC4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AD4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AE4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AF4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AG4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AH4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AI4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AJ4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AK4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AL4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AM4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AN4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AO4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AP4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AQ4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AR4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AS4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AT4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AU4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AV4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AW4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AX4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AY4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="AZ4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
       <c r="BA4">
-        <v>2.019708590734393</v>
+        <v>1.224484594823672</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="D5">
-        <v>0.517569958955022</v>
-      </c>
-      <c r="E5">
-        <v>0.5675883953422334</v>
-      </c>
-      <c r="F5">
-        <v>0.6903823027894607</v>
+        <v>40908</v>
       </c>
       <c r="G5">
-        <v>0.6903823027894607</v>
+        <v>-0.2328395085068324</v>
       </c>
       <c r="H5">
-        <v>0.9192230051389805</v>
+        <v>0.7327527981400461</v>
       </c>
       <c r="I5">
-        <v>0.9192230051389805</v>
+        <v>1.171373351779592</v>
       </c>
       <c r="J5">
-        <v>0.9192230051389805</v>
+        <v>0.8993608108207818</v>
       </c>
       <c r="K5">
-        <v>0.9192230051389805</v>
+        <v>0.8230381930494524</v>
       </c>
       <c r="L5">
-        <v>0.9192230051389805</v>
+        <v>0.7216192599892368</v>
       </c>
       <c r="M5">
-        <v>0.9192230051389805</v>
+        <v>0.7216192599892368</v>
       </c>
       <c r="N5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="O5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="P5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="Q5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="R5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="S5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="T5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="U5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="V5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="W5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="X5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="Y5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="Z5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AA5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AB5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AC5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AD5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AE5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AF5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AG5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AH5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AI5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AJ5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AK5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AL5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AM5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AN5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AO5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AP5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AQ5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AR5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AS5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AT5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AU5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AV5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AW5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AX5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AY5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="AZ5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
       <c r="BA5">
-        <v>0.9192230051389805</v>
+        <v>0.6212498672564903</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="F6">
-        <v>-3.956152295564896</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-3.851319353590832</v>
+        <v>-0.1416123246535728</v>
       </c>
       <c r="H6">
-        <v>-3.651173644695949</v>
+        <v>0.2733275697887283</v>
       </c>
       <c r="I6">
-        <v>-3.551226026438303</v>
+        <v>0.6458049593451864</v>
       </c>
       <c r="J6">
-        <v>-3.560752169208581</v>
+        <v>0.4113848771853501</v>
       </c>
       <c r="K6">
-        <v>-3.560752169208581</v>
+        <v>0.4797371259344096</v>
       </c>
       <c r="L6">
-        <v>-3.560752169208581</v>
+        <v>0.9010266119894084</v>
       </c>
       <c r="M6">
-        <v>-3.560752169208581</v>
+        <v>0.8759401840525038</v>
       </c>
       <c r="N6">
-        <v>-3.560752169208581</v>
+        <v>0.8252148217303912</v>
       </c>
       <c r="O6">
-        <v>-3.560752169208581</v>
+        <v>0.8252148217303912</v>
       </c>
       <c r="P6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="Q6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="R6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="S6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="T6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="U6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="V6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="W6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="X6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="Y6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="Z6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AA6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AB6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AC6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AD6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AE6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AF6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AG6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AH6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AI6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AJ6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AK6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AL6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AM6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AN6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AO6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AP6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AQ6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AR6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AS6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AT6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AU6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AV6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AW6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AX6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AY6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="AZ6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
       <c r="BA6">
-        <v>-3.560752169208581</v>
+        <v>0.951852872712089</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="G7">
-        <v>0.7825601129312298</v>
-      </c>
-      <c r="H7">
-        <v>1.234995474941392</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>1.348163430548532</v>
+        <v>0.3817224744842918</v>
       </c>
       <c r="J7">
-        <v>1.275896887240369</v>
+        <v>0.2853464611100254</v>
       </c>
       <c r="K7">
-        <v>1.275896887240369</v>
+        <v>0.5448268972618742</v>
       </c>
       <c r="L7">
-        <v>1.224484594823694</v>
+        <v>1.203907967581297</v>
       </c>
       <c r="M7">
-        <v>1.224484594823694</v>
+        <v>0.1088602047939924</v>
       </c>
       <c r="N7">
-        <v>1.224484594823694</v>
+        <v>0.02019328874802717</v>
       </c>
       <c r="O7">
-        <v>1.224484594823694</v>
+        <v>-0.08115075007931738</v>
       </c>
       <c r="P7">
-        <v>1.224484594823694</v>
+        <v>-0.4107694080242363</v>
       </c>
       <c r="Q7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="R7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="S7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="T7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="U7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="V7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="W7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="X7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="Y7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="Z7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AA7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AB7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AC7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AD7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AE7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AF7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AG7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AH7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AI7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AJ7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AK7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AL7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AM7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AN7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AO7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AP7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AQ7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AR7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AS7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AT7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AU7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AV7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AW7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AX7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AY7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="AZ7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
       <c r="BA7">
-        <v>1.224484594823694</v>
+        <v>-0.3608752035976437</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="G8">
-        <v>-0.2328395085068102</v>
-      </c>
-      <c r="H8">
-        <v>0.7327527981400461</v>
-      </c>
-      <c r="I8">
-        <v>1.171373351779592</v>
-      </c>
-      <c r="J8">
-        <v>0.899360810820804</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>0.8230381930494524</v>
+        <v>0.3266818135163163</v>
       </c>
       <c r="L8">
-        <v>0.721619259989259</v>
+        <v>0.4772990280351497</v>
       </c>
       <c r="M8">
-        <v>0.721619259989259</v>
+        <v>0.1671551101610103</v>
       </c>
       <c r="N8">
-        <v>0.6212498672565125</v>
+        <v>-0.03860754389360954</v>
       </c>
       <c r="O8">
-        <v>0.6212498672565125</v>
+        <v>-0.0753942162614929</v>
       </c>
       <c r="P8">
-        <v>0.6212498672565125</v>
+        <v>0.1729981757035093</v>
       </c>
       <c r="Q8">
-        <v>0.6212498672565125</v>
+        <v>0.2718030045139708</v>
       </c>
       <c r="R8">
-        <v>0.6212498672565125</v>
+        <v>0.1714062183274967</v>
       </c>
       <c r="S8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="T8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="U8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="V8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="W8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="X8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="Y8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="Z8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AA8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AB8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AC8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AD8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AE8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AF8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AG8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AH8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AI8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AJ8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AK8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AL8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AM8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AN8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AO8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AP8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AQ8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AR8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AS8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AT8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AU8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AV8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AW8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AX8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AY8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="AZ8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
       <c r="BA8">
-        <v>0.6212498672565125</v>
+        <v>0.09627146709163537</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>-0.1416123246535395</v>
-      </c>
-      <c r="H9">
-        <v>0.2733275697887061</v>
-      </c>
-      <c r="I9">
-        <v>0.6458049593451864</v>
-      </c>
-      <c r="J9">
-        <v>0.4113848771853501</v>
-      </c>
-      <c r="K9">
-        <v>0.4797371259343874</v>
-      </c>
-      <c r="L9">
-        <v>0.9010266119894084</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>0.8759401840525038</v>
+        <v>0.2738379355654796</v>
       </c>
       <c r="N9">
-        <v>0.8252148217304134</v>
+        <v>0.1947351240410011</v>
       </c>
       <c r="O9">
-        <v>0.8252148217304134</v>
+        <v>-0.06463514052834629</v>
       </c>
       <c r="P9">
-        <v>0.9518528727121112</v>
+        <v>0.2629870913912535</v>
       </c>
       <c r="Q9">
-        <v>0.9518528727121112</v>
+        <v>-0.07548837955327903</v>
       </c>
       <c r="R9">
-        <v>0.9518528727121112</v>
+        <v>0.09752710595589686</v>
       </c>
       <c r="S9">
-        <v>0.9518528727121112</v>
+        <v>0.1227396980271855</v>
       </c>
       <c r="T9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="U9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="V9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="W9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="X9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="Y9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="Z9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AA9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AB9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AC9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AD9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AE9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AF9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AG9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AH9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AI9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AJ9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AK9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AL9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AM9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AN9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AO9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AP9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AQ9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AR9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AS9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AT9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AU9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AV9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AW9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AX9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AY9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="AZ9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
       <c r="BA9">
-        <v>0.9518528727121112</v>
+        <v>0.1477266864992943</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>0.3817224744843362</v>
-      </c>
-      <c r="J10">
-        <v>0.2853464611100254</v>
-      </c>
-      <c r="K10">
-        <v>0.5448268972618964</v>
-      </c>
-      <c r="L10">
-        <v>1.203907967581297</v>
-      </c>
-      <c r="M10">
-        <v>0.1088602047940146</v>
-      </c>
-      <c r="N10">
-        <v>0.02019328874804938</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>-0.08115075007928407</v>
+        <v>0.1670925954163627</v>
       </c>
       <c r="P10">
-        <v>-0.4107694080242141</v>
+        <v>0.2339160519777117</v>
       </c>
       <c r="Q10">
-        <v>-0.3608752035976104</v>
+        <v>0.05928147027902675</v>
       </c>
       <c r="R10">
-        <v>-0.3608752035976104</v>
+        <v>0.1987429576382871</v>
       </c>
       <c r="S10">
-        <v>-0.3608752035976104</v>
+        <v>-0.5735475396625112</v>
       </c>
       <c r="T10">
-        <v>-0.3608752035976104</v>
+        <v>-0.5280591151586633</v>
       </c>
       <c r="U10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="V10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="W10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="X10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="Y10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="Z10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AA10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AB10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AC10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AD10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AE10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AF10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AG10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AH10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AI10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AJ10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AK10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AL10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AM10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AN10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AO10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AP10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AQ10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AR10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AS10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AT10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AU10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AV10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AW10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AX10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AY10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="AZ10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
       <c r="BA10">
-        <v>-0.3608752035976104</v>
+        <v>-0.4279125887877044</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>0.3266818135163163</v>
-      </c>
-      <c r="L11">
-        <v>0.4772990280351275</v>
-      </c>
-      <c r="M11">
-        <v>0.1671551101610103</v>
-      </c>
-      <c r="N11">
-        <v>-0.03860754389363175</v>
-      </c>
-      <c r="O11">
-        <v>-0.075394216261504</v>
-      </c>
-      <c r="P11">
-        <v>0.1729981757035093</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>0.2718030045139708</v>
+        <v>0.1879339208957109</v>
       </c>
       <c r="R11">
-        <v>0.1714062183274745</v>
+        <v>0.1945067555096713</v>
       </c>
       <c r="S11">
-        <v>0.09627146709161316</v>
+        <v>0.02406984837133308</v>
       </c>
       <c r="T11">
-        <v>0.09627146709161316</v>
+        <v>0.1903092973221998</v>
       </c>
       <c r="U11">
-        <v>0.09627146709161316</v>
+        <v>0.02883110668336908</v>
       </c>
       <c r="V11">
-        <v>0.09627146709161316</v>
+        <v>0.0720185131838802</v>
       </c>
       <c r="W11">
-        <v>0.09627146709161316</v>
+        <v>0.02175702680231595</v>
       </c>
       <c r="X11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="Y11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="Z11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AA11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AB11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AC11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AD11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AE11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AF11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AG11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AH11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AI11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AJ11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AK11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AL11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AM11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AN11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AO11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AP11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AQ11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AR11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AS11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AT11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AU11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AV11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AW11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AX11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AY11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="AZ11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
       <c r="BA11">
-        <v>0.09627146709161316</v>
+        <v>-0.002674352087272958</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>0.2738379355654796</v>
-      </c>
-      <c r="N12">
-        <v>0.1947351240410011</v>
-      </c>
-      <c r="O12">
-        <v>-0.06463514052835739</v>
-      </c>
-      <c r="P12">
-        <v>0.2629870913912535</v>
-      </c>
-      <c r="Q12">
-        <v>-0.07548837955325682</v>
-      </c>
-      <c r="R12">
-        <v>0.09752710595589686</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>0.1227396980271855</v>
+        <v>0.1256017014773514</v>
       </c>
       <c r="T12">
-        <v>0.1477266864993165</v>
+        <v>0.1375940219123795</v>
       </c>
       <c r="U12">
-        <v>0.1477266864993165</v>
+        <v>0.241498802789164</v>
       </c>
       <c r="V12">
-        <v>0.1477266864993165</v>
+        <v>0.2843016498274009</v>
       </c>
       <c r="W12">
-        <v>0.1477266864993165</v>
+        <v>0.8258453722611137</v>
       </c>
       <c r="X12">
-        <v>0.1477266864993165</v>
+        <v>0.7252300059688022</v>
       </c>
       <c r="Y12">
-        <v>0.1477266864993165</v>
+        <v>0.4640111827386662</v>
       </c>
       <c r="Z12">
-        <v>0.1477266864993165</v>
+        <v>0.3727661260635617</v>
       </c>
       <c r="AA12">
-        <v>0.1477266864993165</v>
+        <v>0.3978969634888196</v>
       </c>
       <c r="AB12">
-        <v>0.1477266864993165</v>
+        <v>0.3978969634888196</v>
       </c>
       <c r="AC12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AD12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AE12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AF12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AG12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AH12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AI12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AJ12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AK12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AL12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AM12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AN12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AO12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AP12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AQ12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AR12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AS12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AT12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AU12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AV12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AW12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AX12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AY12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="AZ12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
       <c r="BA12">
-        <v>0.1477266864993165</v>
+        <v>0.3477863758372779</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>0.1670925954163627</v>
-      </c>
-      <c r="P13">
-        <v>0.2339160519776673</v>
-      </c>
-      <c r="Q13">
-        <v>0.05928147027902675</v>
-      </c>
-      <c r="R13">
-        <v>0.1987429576382649</v>
-      </c>
-      <c r="S13">
-        <v>-0.5735475396625112</v>
-      </c>
-      <c r="T13">
-        <v>-0.5280591151586633</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>-0.4279125887876933</v>
+        <v>0.1545846624690705</v>
       </c>
       <c r="V13">
-        <v>-0.4279125887876933</v>
+        <v>0.1894658089877765</v>
       </c>
       <c r="W13">
-        <v>-0.4279125887876933</v>
+        <v>0.2880642977814318</v>
       </c>
       <c r="X13">
-        <v>-0.4279125887876933</v>
+        <v>0.2052430644269743</v>
       </c>
       <c r="Y13">
-        <v>-0.4279125887876933</v>
+        <v>-0.1620498231152179</v>
       </c>
       <c r="Z13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8612142616933216</v>
       </c>
       <c r="AA13">
-        <v>-0.4279125887876933</v>
+        <v>-0.9065026814729205</v>
       </c>
       <c r="AB13">
-        <v>-0.4279125887876933</v>
+        <v>-0.6243248145489155</v>
       </c>
       <c r="AC13">
-        <v>-0.4279125887876933</v>
+        <v>-0.7901161779547361</v>
       </c>
       <c r="AD13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8017595264762423</v>
       </c>
       <c r="AE13">
-        <v>-0.4279125887876933</v>
+        <v>-0.6529483649974854</v>
       </c>
       <c r="AF13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AG13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AH13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AI13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AJ13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AK13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AL13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AM13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AN13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AO13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AP13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AQ13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AR13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AS13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AT13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AU13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AV13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AW13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AX13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AY13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="AZ13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
       <c r="BA13">
-        <v>-0.4279125887876933</v>
+        <v>-0.8261807291073398</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>0.1879339208957331</v>
-      </c>
-      <c r="R14">
-        <v>0.1945067555096935</v>
-      </c>
-      <c r="S14">
-        <v>0.02406984837131088</v>
-      </c>
-      <c r="T14">
-        <v>0.1903092973221776</v>
-      </c>
-      <c r="U14">
-        <v>0.02883110668334687</v>
-      </c>
-      <c r="V14">
-        <v>0.07201851318385799</v>
-      </c>
-      <c r="W14">
-        <v>0.02175702680227154</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>-0.002674352087295162</v>
+        <v>0.2101708559054671</v>
       </c>
       <c r="Y14">
-        <v>-0.002674352087295162</v>
+        <v>0.1302484335361953</v>
       </c>
       <c r="Z14">
-        <v>-0.002674352087295162</v>
+        <v>0.007800033467697531</v>
       </c>
       <c r="AA14">
-        <v>-0.002674352087295162</v>
+        <v>-0.1365403697986323</v>
       </c>
       <c r="AB14">
-        <v>-0.002674352087295162</v>
+        <v>0.07475225043116485</v>
       </c>
       <c r="AC14">
-        <v>-0.002674352087295162</v>
+        <v>-0.1949185821441657</v>
       </c>
       <c r="AD14">
-        <v>-0.002674352087295162</v>
+        <v>0.06491682578966262</v>
       </c>
       <c r="AE14">
-        <v>-0.002674352087295162</v>
+        <v>-0.2930109800340697</v>
       </c>
       <c r="AF14">
-        <v>-0.002674352087295162</v>
+        <v>-0.6491730431770648</v>
       </c>
       <c r="AG14">
-        <v>-0.002674352087295162</v>
+        <v>-2.057410563888296</v>
       </c>
       <c r="AH14">
-        <v>-0.002674352087295162</v>
+        <v>-1.103489789942047</v>
       </c>
       <c r="AI14">
-        <v>-0.002674352087295162</v>
+        <v>-1.028996259456316</v>
       </c>
       <c r="AJ14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AK14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AL14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AM14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AN14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AO14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AP14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AQ14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AR14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AS14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AT14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AU14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AV14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AW14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AX14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AY14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="AZ14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
       <c r="BA14">
-        <v>-0.002674352087295162</v>
+        <v>-1.099040380746541</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>0.1256017014773514</v>
-      </c>
-      <c r="T15">
-        <v>0.1375940219123795</v>
-      </c>
-      <c r="U15">
-        <v>0.241498802789164</v>
-      </c>
-      <c r="V15">
-        <v>0.2843016498274009</v>
-      </c>
-      <c r="W15">
-        <v>0.8258453722611359</v>
-      </c>
-      <c r="X15">
-        <v>0.7252300059688022</v>
-      </c>
-      <c r="Y15">
-        <v>0.4640111827386662</v>
-      </c>
-      <c r="Z15">
-        <v>0.3727661260635617</v>
-      </c>
-      <c r="AA15">
-        <v>0.3978969634888196</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>0.3978969634888196</v>
+        <v>0.01068754694699692</v>
       </c>
       <c r="AC15">
-        <v>0.3477863758372557</v>
+        <v>-0.09432604732980687</v>
       </c>
       <c r="AD15">
-        <v>0.3477863758372557</v>
+        <v>-0.07589018491489519</v>
       </c>
       <c r="AE15">
-        <v>0.3477863758372557</v>
+        <v>-0.1644047560851014</v>
       </c>
       <c r="AF15">
-        <v>0.3477863758372557</v>
+        <v>-0.4370777949570304</v>
       </c>
       <c r="AG15">
-        <v>0.3477863758372557</v>
+        <v>-2.423816817070179</v>
       </c>
       <c r="AH15">
-        <v>0.3477863758372557</v>
+        <v>0.1236480429917863</v>
       </c>
       <c r="AI15">
-        <v>0.3477863758372557</v>
+        <v>1.494156293753868</v>
       </c>
       <c r="AJ15">
-        <v>0.3477863758372557</v>
+        <v>1.655453073576818</v>
       </c>
       <c r="AK15">
-        <v>0.3477863758372557</v>
+        <v>1.056133903324663</v>
       </c>
       <c r="AL15">
-        <v>0.3477863758372557</v>
+        <v>0.9704846793491706</v>
       </c>
       <c r="AM15">
-        <v>0.3477863758372557</v>
+        <v>1.223326471750918</v>
       </c>
       <c r="AN15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AO15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AP15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AQ15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AR15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AS15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AT15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AU15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AV15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AW15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AX15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AY15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="AZ15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
       <c r="BA15">
-        <v>0.3477863758372557</v>
+        <v>1.197694531567151</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>0.1545846624690705</v>
-      </c>
-      <c r="V16">
-        <v>0.1894658089877765</v>
-      </c>
-      <c r="W16">
-        <v>0.288064297781454</v>
-      </c>
-      <c r="X16">
-        <v>0.2052430644269299</v>
-      </c>
-      <c r="Y16">
-        <v>-0.1620498231152179</v>
-      </c>
-      <c r="Z16">
-        <v>-0.8612142616933327</v>
-      </c>
-      <c r="AA16">
-        <v>-0.9065026814729205</v>
-      </c>
-      <c r="AB16">
-        <v>-0.6243248145489155</v>
-      </c>
-      <c r="AC16">
-        <v>-0.7901161779547028</v>
-      </c>
-      <c r="AD16">
-        <v>-0.801759526476209</v>
-      </c>
-      <c r="AE16">
-        <v>-0.6529483649974743</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>-0.8261807291073175</v>
+        <v>-0.2244829720783881</v>
       </c>
       <c r="AG16">
-        <v>-0.8261807291073175</v>
+        <v>-0.5482997434836934</v>
       </c>
       <c r="AH16">
-        <v>-0.8261807291073175</v>
+        <v>-0.1265083447281268</v>
       </c>
       <c r="AI16">
-        <v>-0.8261807291073175</v>
+        <v>-0.03701844118271236</v>
       </c>
       <c r="AJ16">
-        <v>-0.8261807291073175</v>
+        <v>0.1245975200357519</v>
       </c>
       <c r="AK16">
-        <v>-0.8261807291073175</v>
+        <v>-0.1670542209177395</v>
       </c>
       <c r="AL16">
-        <v>-0.8261807291073175</v>
+        <v>-0.4119900615863981</v>
       </c>
       <c r="AM16">
-        <v>-0.8261807291073175</v>
+        <v>-0.1632466586723558</v>
       </c>
       <c r="AN16">
-        <v>-0.8261807291073175</v>
+        <v>-1.105429175133776</v>
       </c>
       <c r="AO16">
-        <v>-0.8261807291073175</v>
+        <v>-0.901621708013578</v>
       </c>
       <c r="AP16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7009264669202708</v>
       </c>
       <c r="AQ16">
-        <v>-0.8261807291073175</v>
+        <v>-0.5764037455884163</v>
       </c>
       <c r="AR16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AS16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AT16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AU16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AV16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AW16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AX16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AY16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="AZ16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
       <c r="BA16">
-        <v>-0.8261807291073175</v>
+        <v>-0.7498286166554458</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>0.2101708559054671</v>
-      </c>
-      <c r="Y17">
-        <v>0.1302484335361953</v>
-      </c>
-      <c r="Z17">
-        <v>0.007800033467675327</v>
-      </c>
-      <c r="AA17">
-        <v>-0.1365403697986656</v>
-      </c>
-      <c r="AB17">
-        <v>0.07475225043114264</v>
-      </c>
-      <c r="AC17">
-        <v>-0.1949185821441768</v>
-      </c>
-      <c r="AD17">
-        <v>0.06491682578968483</v>
-      </c>
-      <c r="AE17">
-        <v>-0.2930109800340586</v>
-      </c>
-      <c r="AF17">
-        <v>-0.6491730431770759</v>
-      </c>
-      <c r="AG17">
-        <v>-2.057410563888307</v>
-      </c>
-      <c r="AH17">
-        <v>-1.103489789942047</v>
-      </c>
-      <c r="AI17">
-        <v>-1.028996259456316</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-1.099040380746563</v>
+        <v>0.2201401276413772</v>
       </c>
       <c r="AK17">
-        <v>-1.099040380746563</v>
+        <v>0.1116918684476831</v>
       </c>
       <c r="AL17">
-        <v>-1.099040380746563</v>
+        <v>0.1134982879977153</v>
       </c>
       <c r="AM17">
-        <v>-1.099040380746563</v>
+        <v>0.06236746171708329</v>
       </c>
       <c r="AN17">
-        <v>-1.099040380746563</v>
+        <v>-0.1028550454766353</v>
       </c>
       <c r="AO17">
-        <v>-1.099040380746563</v>
+        <v>-0.1714519218005361</v>
       </c>
       <c r="AP17">
-        <v>-1.099040380746563</v>
+        <v>-0.2625026931658447</v>
       </c>
       <c r="AQ17">
-        <v>-1.099040380746563</v>
+        <v>-0.2824436506008499</v>
       </c>
       <c r="AR17">
-        <v>-1.099040380746563</v>
+        <v>0.1312373621887408</v>
       </c>
       <c r="AS17">
-        <v>-1.099040380746563</v>
+        <v>0.1588345419565096</v>
       </c>
       <c r="AT17">
-        <v>-1.099040380746563</v>
+        <v>0.3928252664241683</v>
       </c>
       <c r="AU17">
-        <v>-1.099040380746563</v>
+        <v>0.4429953459436087</v>
       </c>
       <c r="AV17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
       <c r="AW17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
       <c r="AX17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
       <c r="AY17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
       <c r="AZ17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
       <c r="BA17">
-        <v>-1.099040380746563</v>
+        <v>0.3439499888177044</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>0.01068754694699692</v>
-      </c>
-      <c r="AC18">
-        <v>-0.09432604732981797</v>
-      </c>
-      <c r="AD18">
-        <v>-0.07589018491489519</v>
-      </c>
-      <c r="AE18">
-        <v>-0.1644047560850792</v>
-      </c>
-      <c r="AF18">
-        <v>-0.4370777949570193</v>
-      </c>
-      <c r="AG18">
-        <v>-2.423816817070157</v>
-      </c>
-      <c r="AH18">
-        <v>0.1236480429917863</v>
-      </c>
-      <c r="AI18">
-        <v>1.494156293753868</v>
-      </c>
-      <c r="AJ18">
-        <v>1.65545307357684</v>
-      </c>
-      <c r="AK18">
-        <v>1.056133903324663</v>
-      </c>
-      <c r="AL18">
-        <v>0.9704846793491928</v>
-      </c>
-      <c r="AM18">
-        <v>1.223326471750918</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>1.197694531567173</v>
+        <v>0.02545041806518711</v>
       </c>
       <c r="AO18">
-        <v>1.197694531567173</v>
+        <v>-0.04143995754429808</v>
       </c>
       <c r="AP18">
-        <v>1.197694531567173</v>
+        <v>-0.05515464348903043</v>
       </c>
       <c r="AQ18">
-        <v>1.197694531567173</v>
+        <v>-0.06249988768062265</v>
       </c>
       <c r="AR18">
-        <v>1.197694531567173</v>
+        <v>-0.0349050583395405</v>
       </c>
       <c r="AS18">
-        <v>1.197694531567173</v>
+        <v>-0.02192415644459711</v>
       </c>
       <c r="AT18">
-        <v>1.197694531567173</v>
+        <v>0.2126946548430375</v>
       </c>
       <c r="AU18">
-        <v>1.197694531567173</v>
+        <v>0.2213518443051177</v>
       </c>
       <c r="AV18">
-        <v>1.197694531567173</v>
+        <v>0.7202664148089566</v>
       </c>
       <c r="AW18">
-        <v>1.197694531567173</v>
+        <v>0.6819412776044587</v>
       </c>
       <c r="AX18">
-        <v>1.197694531567173</v>
+        <v>0.3224026462283369</v>
       </c>
       <c r="AY18">
-        <v>1.197694531567173</v>
+        <v>0.2722041487321913</v>
       </c>
       <c r="AZ18">
-        <v>1.197694531567173</v>
+        <v>0.2473045135454655</v>
       </c>
       <c r="BA18">
-        <v>1.197694531567173</v>
+        <v>0.2473045135454655</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-0.224482972078377</v>
-      </c>
-      <c r="AG19">
-        <v>-0.5482997434836934</v>
-      </c>
-      <c r="AH19">
-        <v>-0.1265083447281046</v>
-      </c>
-      <c r="AI19">
-        <v>-0.03701844118276787</v>
-      </c>
-      <c r="AJ19">
-        <v>0.1245975200357741</v>
-      </c>
-      <c r="AK19">
-        <v>-0.1670542209177062</v>
-      </c>
-      <c r="AL19">
-        <v>-0.411990061586387</v>
-      </c>
-      <c r="AM19">
-        <v>-0.1632466586723669</v>
-      </c>
-      <c r="AN19">
-        <v>-1.105429175133765</v>
-      </c>
-      <c r="AO19">
-        <v>-0.9016217080135669</v>
-      </c>
-      <c r="AP19">
-        <v>-0.7009264669202708</v>
-      </c>
-      <c r="AQ19">
-        <v>-0.5764037455884052</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>-0.7498286166554236</v>
+        <v>-0.06238148704860169</v>
       </c>
       <c r="AS19">
-        <v>-0.7498286166554236</v>
+        <v>-0.03933611394516534</v>
       </c>
       <c r="AT19">
-        <v>-0.7498286166554236</v>
+        <v>-0.01156799258478225</v>
       </c>
       <c r="AU19">
-        <v>-0.7498286166554236</v>
+        <v>0.005297975263385268</v>
       </c>
       <c r="AV19">
-        <v>-0.7498286166554236</v>
+        <v>0.01261954615912053</v>
       </c>
       <c r="AW19">
-        <v>-0.7498286166554236</v>
+        <v>-0.03086565764708338</v>
       </c>
       <c r="AX19">
-        <v>-0.7498286166554236</v>
+        <v>-0.4796777936134977</v>
       </c>
       <c r="AY19">
-        <v>-0.7498286166554236</v>
+        <v>-1.718039735598864</v>
       </c>
       <c r="AZ19">
-        <v>-0.7498286166554236</v>
+        <v>-1.404974479733823</v>
       </c>
       <c r="BA19">
-        <v>-0.7498286166554236</v>
+        <v>-2.11727792910924</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>0.2201401276413772</v>
-      </c>
-      <c r="AK20">
-        <v>0.1116918684476387</v>
-      </c>
-      <c r="AL20">
-        <v>0.1134982879977375</v>
-      </c>
-      <c r="AM20">
-        <v>0.0623674617171055</v>
-      </c>
-      <c r="AN20">
-        <v>-0.1028550454766353</v>
-      </c>
-      <c r="AO20">
-        <v>-0.1714519218005472</v>
-      </c>
-      <c r="AP20">
-        <v>-0.2625026931658447</v>
-      </c>
-      <c r="AQ20">
-        <v>-0.2824436506008277</v>
-      </c>
-      <c r="AR20">
-        <v>0.131237362188763</v>
-      </c>
-      <c r="AS20">
-        <v>0.1588345419565096</v>
-      </c>
-      <c r="AT20">
-        <v>0.3928252664241905</v>
-      </c>
-      <c r="AU20">
-        <v>0.4429953459436309</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>0.3439499888177044</v>
+        <v>0.004584358788739529</v>
       </c>
       <c r="AW20">
-        <v>0.3439499888177044</v>
+        <v>-0.04164452484139991</v>
       </c>
       <c r="AX20">
-        <v>0.3439499888177044</v>
+        <v>-0.1479580503723765</v>
       </c>
       <c r="AY20">
-        <v>0.3439499888177044</v>
+        <v>-0.09902892412290143</v>
       </c>
       <c r="AZ20">
-        <v>0.3439499888177044</v>
+        <v>-0.06336997074016804</v>
       </c>
       <c r="BA20">
-        <v>0.3439499888177044</v>
+        <v>-0.3042153772887746</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>0.0254504180651649</v>
-      </c>
-      <c r="AO21">
-        <v>-0.04143995754429808</v>
-      </c>
-      <c r="AP21">
-        <v>-0.05515464348903043</v>
-      </c>
-      <c r="AQ21">
-        <v>-0.06249988768062265</v>
-      </c>
-      <c r="AR21">
-        <v>-0.03490505833951829</v>
-      </c>
-      <c r="AS21">
-        <v>-0.0219241564445749</v>
-      </c>
-      <c r="AT21">
-        <v>0.2126946548430375</v>
-      </c>
-      <c r="AU21">
-        <v>0.2213518443051177</v>
-      </c>
-      <c r="AV21">
-        <v>0.7202664148089788</v>
-      </c>
-      <c r="AW21">
-        <v>0.6819412776044809</v>
-      </c>
-      <c r="AX21">
-        <v>0.3224026462283813</v>
-      </c>
-      <c r="AY21">
-        <v>0.2722041487322135</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>0.2473045135454877</v>
+        <v>-0.1742330480940968</v>
       </c>
       <c r="BA21">
-        <v>0.2473045135454877</v>
+        <v>-0.2610200437714538</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>-0.06238148704861279</v>
-      </c>
-      <c r="AS22">
-        <v>-0.03933611394517644</v>
-      </c>
-      <c r="AT22">
-        <v>-0.01156799258479335</v>
-      </c>
-      <c r="AU22">
-        <v>0.005297975263385268</v>
-      </c>
-      <c r="AV22">
-        <v>0.01261954615912053</v>
-      </c>
-      <c r="AW22">
-        <v>-0.03086565764709448</v>
-      </c>
-      <c r="AX22">
-        <v>-0.4796777936135199</v>
-      </c>
-      <c r="AY22">
-        <v>-1.718039735598909</v>
-      </c>
-      <c r="AZ22">
-        <v>-1.4049744797338</v>
-      </c>
-      <c r="BA22">
-        <v>-2.11727792910924</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>0.004584358788717324</v>
-      </c>
-      <c r="AW23">
-        <v>-0.04164452484139991</v>
-      </c>
-      <c r="AX23">
-        <v>-0.1479580503723765</v>
-      </c>
-      <c r="AY23">
-        <v>-0.09902892412290143</v>
-      </c>
-      <c r="AZ23">
-        <v>-0.06336997074021244</v>
-      </c>
-      <c r="BA23">
-        <v>-0.3042153772887857</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>-0.174233048094119</v>
-      </c>
-      <c r="BA24">
-        <v>-0.2610200437714427</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AR_50_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_TRDBAL_AR_50_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -686,8 +689,11 @@
       <c r="BA3">
         <v>-3.560752169208581</v>
       </c>
+      <c r="BB3">
+        <v>-3.560752169208581</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="BA4">
         <v>1.224484594823672</v>
       </c>
+      <c r="BB4">
+        <v>1.224484594823672</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -978,8 +987,11 @@
       <c r="BA5">
         <v>0.6212498672564903</v>
       </c>
+      <c r="BB5">
+        <v>0.6212498672564903</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1124,8 +1136,11 @@
       <c r="BA6">
         <v>0.951852872712089</v>
       </c>
+      <c r="BB6">
+        <v>0.951852872712089</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1264,8 +1279,11 @@
       <c r="BA7">
         <v>-0.3608752035976437</v>
       </c>
+      <c r="BB7">
+        <v>-0.3608752035976437</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1398,8 +1416,11 @@
       <c r="BA8">
         <v>0.09627146709163537</v>
       </c>
+      <c r="BB8">
+        <v>0.09627146709163537</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1526,8 +1547,11 @@
       <c r="BA9">
         <v>0.1477266864992943</v>
       </c>
+      <c r="BB9">
+        <v>0.1477266864992943</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1648,8 +1672,11 @@
       <c r="BA10">
         <v>-0.4279125887877044</v>
       </c>
+      <c r="BB10">
+        <v>-0.4279125887877044</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1764,8 +1791,11 @@
       <c r="BA11">
         <v>-0.002674352087272958</v>
       </c>
+      <c r="BB11">
+        <v>-0.002674352087272958</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1874,8 +1904,11 @@
       <c r="BA12">
         <v>0.3477863758372779</v>
       </c>
+      <c r="BB12">
+        <v>0.3477863758372779</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -1978,8 +2011,11 @@
       <c r="BA13">
         <v>-0.8261807291073398</v>
       </c>
+      <c r="BB13">
+        <v>-0.8261807291073398</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2073,8 +2109,11 @@
       <c r="BA14">
         <v>-1.099040380746541</v>
       </c>
+      <c r="BB14">
+        <v>-1.099040380746541</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2156,8 +2195,11 @@
       <c r="BA15">
         <v>1.197694531567151</v>
       </c>
+      <c r="BB15">
+        <v>1.197694531567151</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2227,8 +2269,11 @@
       <c r="BA16">
         <v>-0.7498286166554458</v>
       </c>
+      <c r="BB16">
+        <v>-0.7498286166554458</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2286,8 +2331,11 @@
       <c r="BA17">
         <v>0.3439499888177044</v>
       </c>
+      <c r="BB17">
+        <v>0.3439499888177044</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2333,8 +2381,11 @@
       <c r="BA18">
         <v>0.2473045135454655</v>
       </c>
+      <c r="BB18">
+        <v>0.2473045135454655</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2368,8 +2419,11 @@
       <c r="BA19">
         <v>-2.11727792910924</v>
       </c>
+      <c r="BB19">
+        <v>-2.06674933094535</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2391,8 +2445,11 @@
       <c r="BA20">
         <v>-0.3042153772887746</v>
       </c>
+      <c r="BB20">
+        <v>-0.3099928749133896</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2402,8 +2459,11 @@
       <c r="BA21">
         <v>-0.2610200437714538</v>
       </c>
+      <c r="BB21">
+        <v>-0.2238069216630945</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
